--- a/EstimatedActiveCasesOverTimeByCounty/2021-02-11.xlsx
+++ b/EstimatedActiveCasesOverTimeByCounty/2021-02-11.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="326">
   <si>
-    <t>COVID-19 Active Cases by County, 12/11/2020 - 02/10/2021 at 3:00 PM CST</t>
+    <t>COVID-19 Active Cases by County, 12/11/2020 - 02/11/2021 at 3:00 PM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Active Cases 02-09</t>
+  </si>
+  <si>
+    <t>Active Cases 02-10</t>
   </si>
   <si>
     <t/>
@@ -1164,6 +1167,7 @@
     <col min="60" max="60" width="12.0" customWidth="true"/>
     <col min="61" max="61" width="12.0" customWidth="true"/>
     <col min="62" max="62" width="12.0" customWidth="true"/>
+    <col min="63" max="63" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1363,13 +1367,16 @@
       <c r="BJ3" t="s" s="10">
         <v>63</v>
       </c>
+      <c r="BK3" t="s" s="10">
+        <v>64</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" t="n">
         <v>261.0</v>
@@ -1550,14 +1557,17 @@
       </c>
       <c r="BJ4" t="n">
         <v>283.0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>244.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" t="n">
         <v>313.0</v>
@@ -1737,15 +1747,18 @@
         <v>169.0</v>
       </c>
       <c r="BJ5" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="BK5" t="n">
         <v>146.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" t="n">
         <v>751.0</v>
@@ -1926,14 +1939,17 @@
       </c>
       <c r="BJ6" t="n">
         <v>908.0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>693.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" t="n">
         <v>103.0</v>
@@ -2114,14 +2130,17 @@
       </c>
       <c r="BJ7" t="n">
         <v>156.0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>158.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C8" t="n">
         <v>45.0</v>
@@ -2301,15 +2320,18 @@
         <v>1.0</v>
       </c>
       <c r="BJ8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" t="n">
         <v>32.0</v>
@@ -2489,15 +2511,18 @@
         <v>11.0</v>
       </c>
       <c r="BJ9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BK9" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10" t="n">
         <v>210.0</v>
@@ -2678,14 +2703,17 @@
       </c>
       <c r="BJ10" t="n">
         <v>258.0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>235.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11" t="n">
         <v>77.0</v>
@@ -2866,14 +2894,17 @@
       </c>
       <c r="BJ11" t="n">
         <v>81.0</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>82.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C12" t="n">
         <v>118.0</v>
@@ -3054,14 +3085,17 @@
       </c>
       <c r="BJ12" t="n">
         <v>10.0</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13" t="n">
         <v>46.0</v>
@@ -3242,14 +3276,17 @@
       </c>
       <c r="BJ13" t="n">
         <v>85.0</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14" t="n">
         <v>461.0</v>
@@ -3430,14 +3467,17 @@
       </c>
       <c r="BJ14" t="n">
         <v>1905.0</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>1901.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -3617,15 +3657,18 @@
         <v>3.0</v>
       </c>
       <c r="BJ15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK15" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C16" t="n">
         <v>171.0</v>
@@ -3806,14 +3849,17 @@
       </c>
       <c r="BJ16" t="n">
         <v>243.0</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>230.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C17" t="n">
         <v>1639.0</v>
@@ -3994,14 +4040,17 @@
       </c>
       <c r="BJ17" t="n">
         <v>1266.0</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>1265.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C18" t="n">
         <v>15750.0</v>
@@ -4182,14 +4231,17 @@
       </c>
       <c r="BJ18" t="n">
         <v>25820.0</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>25160.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" t="n">
         <v>24.0</v>
@@ -4370,14 +4422,17 @@
       </c>
       <c r="BJ19" t="n">
         <v>198.0</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>189.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -4557,15 +4612,18 @@
         <v>0.0</v>
       </c>
       <c r="BJ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C21" t="n">
         <v>74.0</v>
@@ -4746,14 +4804,17 @@
       </c>
       <c r="BJ21" t="n">
         <v>295.0</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>289.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C22" t="n">
         <v>482.0</v>
@@ -4934,14 +4995,17 @@
       </c>
       <c r="BJ22" t="n">
         <v>544.0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>535.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C23" t="n">
         <v>2730.0</v>
@@ -5122,14 +5186,17 @@
       </c>
       <c r="BJ23" t="n">
         <v>4572.0</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>4650.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" t="n">
         <v>854.0</v>
@@ -5310,14 +5377,17 @@
       </c>
       <c r="BJ24" t="n">
         <v>1358.0</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>1354.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" t="n">
         <v>182.0</v>
@@ -5498,14 +5568,17 @@
       </c>
       <c r="BJ25" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C26" t="n">
         <v>15.0</v>
@@ -5686,14 +5759,17 @@
       </c>
       <c r="BJ26" t="n">
         <v>7.0</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27" t="n">
         <v>38.0</v>
@@ -5874,14 +5950,17 @@
       </c>
       <c r="BJ27" t="n">
         <v>37.0</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C28" t="n">
         <v>429.0</v>
@@ -6061,15 +6140,18 @@
         <v>126.0</v>
       </c>
       <c r="BJ28" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="BK28" t="n">
         <v>126.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C29" t="n">
         <v>119.0</v>
@@ -6250,14 +6332,17 @@
       </c>
       <c r="BJ29" t="n">
         <v>586.0</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>583.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C30" t="n">
         <v>311.0</v>
@@ -6438,14 +6523,17 @@
       </c>
       <c r="BJ30" t="n">
         <v>1002.0</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>1013.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C31" t="n">
         <v>197.0</v>
@@ -6626,14 +6714,17 @@
       </c>
       <c r="BJ31" t="n">
         <v>1352.0</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>1363.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C32" t="n">
         <v>51.0</v>
@@ -6814,14 +6905,17 @@
       </c>
       <c r="BJ32" t="n">
         <v>101.0</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C33" t="n">
         <v>49.0</v>
@@ -7001,15 +7095,18 @@
         <v>10.0</v>
       </c>
       <c r="BJ33" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK33" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C34" t="n">
         <v>2029.0</v>
@@ -7190,14 +7287,17 @@
       </c>
       <c r="BJ34" t="n">
         <v>4673.0</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>4555.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C35" t="n">
         <v>71.0</v>
@@ -7378,14 +7478,17 @@
       </c>
       <c r="BJ35" t="n">
         <v>182.0</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>178.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C36" t="n">
         <v>117.0</v>
@@ -7566,14 +7669,17 @@
       </c>
       <c r="BJ36" t="n">
         <v>17.0</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C37" t="n">
         <v>83.0</v>
@@ -7753,15 +7859,18 @@
         <v>110.0</v>
       </c>
       <c r="BJ37" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="BK37" t="n">
         <v>107.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C38" t="n">
         <v>133.0</v>
@@ -7942,14 +8051,17 @@
       </c>
       <c r="BJ38" t="n">
         <v>24.0</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C39" t="n">
         <v>269.0</v>
@@ -8130,14 +8242,17 @@
       </c>
       <c r="BJ39" t="n">
         <v>370.0</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>334.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C40" t="n">
         <v>214.0</v>
@@ -8318,14 +8433,17 @@
       </c>
       <c r="BJ40" t="n">
         <v>1.0</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C41" t="n">
         <v>218.0</v>
@@ -8506,14 +8624,17 @@
       </c>
       <c r="BJ41" t="n">
         <v>24.0</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C42" t="n">
         <v>63.0</v>
@@ -8693,15 +8814,18 @@
         <v>10.0</v>
       </c>
       <c r="BJ42" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BK42" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C43" t="n">
         <v>19.0</v>
@@ -8881,15 +9005,18 @@
         <v>16.0</v>
       </c>
       <c r="BJ43" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BK43" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C44" t="n">
         <v>38.0</v>
@@ -9070,14 +9197,17 @@
       </c>
       <c r="BJ44" t="n">
         <v>10.0</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C45" t="n">
         <v>12.0</v>
@@ -9257,15 +9387,18 @@
         <v>5.0</v>
       </c>
       <c r="BJ45" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BK45" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C46" t="n">
         <v>3987.0</v>
@@ -9446,14 +9579,17 @@
       </c>
       <c r="BJ46" t="n">
         <v>3211.0</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>3280.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C47" t="n">
         <v>104.0</v>
@@ -9634,14 +9770,17 @@
       </c>
       <c r="BJ47" t="n">
         <v>10.0</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C48" t="n">
         <v>91.0</v>
@@ -9822,14 +9961,17 @@
       </c>
       <c r="BJ48" t="n">
         <v>60.0</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C49" t="n">
         <v>667.0</v>
@@ -10010,14 +10152,17 @@
       </c>
       <c r="BJ49" t="n">
         <v>622.0</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>626.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C50" t="n">
         <v>112.0</v>
@@ -10198,14 +10343,17 @@
       </c>
       <c r="BJ50" t="n">
         <v>29.0</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C51" t="n">
         <v>11.0</v>
@@ -10386,14 +10534,17 @@
       </c>
       <c r="BJ51" t="n">
         <v>28.0</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C52" t="n">
         <v>249.0</v>
@@ -10574,14 +10725,17 @@
       </c>
       <c r="BJ52" t="n">
         <v>70.0</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C53" t="n">
         <v>318.0</v>
@@ -10762,14 +10916,17 @@
       </c>
       <c r="BJ53" t="n">
         <v>606.0</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>512.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C54" t="n">
         <v>30.0</v>
@@ -10949,15 +11106,18 @@
         <v>0.0</v>
       </c>
       <c r="BJ54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK54" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C55" t="n">
         <v>0.0</v>
@@ -11137,15 +11297,18 @@
         <v>1.0</v>
       </c>
       <c r="BJ55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK55" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C56" t="n">
         <v>8.0</v>
@@ -11326,14 +11489,17 @@
       </c>
       <c r="BJ56" t="n">
         <v>53.0</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C57" t="n">
         <v>40.0</v>
@@ -11514,14 +11680,17 @@
       </c>
       <c r="BJ57" t="n">
         <v>38.0</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C58" t="n">
         <v>44.0</v>
@@ -11702,14 +11871,17 @@
       </c>
       <c r="BJ58" t="n">
         <v>21.0</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C59" t="n">
         <v>24.0</v>
@@ -11890,14 +12062,17 @@
       </c>
       <c r="BJ59" t="n">
         <v>46.0</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C60" t="n">
         <v>25147.0</v>
@@ -12078,14 +12253,17 @@
       </c>
       <c r="BJ60" t="n">
         <v>26727.0</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>25994.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C61" t="n">
         <v>161.0</v>
@@ -12266,14 +12444,17 @@
       </c>
       <c r="BJ61" t="n">
         <v>22.0</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C62" t="n">
         <v>418.0</v>
@@ -12454,14 +12635,17 @@
       </c>
       <c r="BJ62" t="n">
         <v>80.0</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C63" t="n">
         <v>25.0</v>
@@ -12642,14 +12826,17 @@
       </c>
       <c r="BJ63" t="n">
         <v>45.0</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C64" t="n">
         <v>8213.0</v>
@@ -12830,14 +13017,17 @@
       </c>
       <c r="BJ64" t="n">
         <v>14761.0</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>14889.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C65" t="n">
         <v>99.0</v>
@@ -13018,14 +13208,17 @@
       </c>
       <c r="BJ65" t="n">
         <v>139.0</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>138.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C66" t="n">
         <v>19.0</v>
@@ -13206,14 +13399,17 @@
       </c>
       <c r="BJ66" t="n">
         <v>9.0</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C67" t="n">
         <v>44.0</v>
@@ -13394,14 +13590,17 @@
       </c>
       <c r="BJ67" t="n">
         <v>116.0</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>112.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C68" t="n">
         <v>47.0</v>
@@ -13582,14 +13781,17 @@
       </c>
       <c r="BJ68" t="n">
         <v>36.0</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C69" t="n">
         <v>86.0</v>
@@ -13770,14 +13972,17 @@
       </c>
       <c r="BJ69" t="n">
         <v>55.0</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C70" t="n">
         <v>55.0</v>
@@ -13957,15 +14162,18 @@
         <v>32.0</v>
       </c>
       <c r="BJ70" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="BK70" t="n">
         <v>29.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C71" t="n">
         <v>5924.0</v>
@@ -14146,14 +14354,17 @@
       </c>
       <c r="BJ71" t="n">
         <v>1893.0</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>2126.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B72" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C72" t="n">
         <v>14.0</v>
@@ -14333,15 +14544,18 @@
         <v>7.0</v>
       </c>
       <c r="BJ72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BK72" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C73" t="n">
         <v>856.0</v>
@@ -14522,14 +14736,17 @@
       </c>
       <c r="BJ73" t="n">
         <v>477.0</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>496.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B74" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C74" t="n">
         <v>37353.0</v>
@@ -14710,14 +14927,17 @@
       </c>
       <c r="BJ74" t="n">
         <v>8152.0</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>8177.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C75" t="n">
         <v>162.0</v>
@@ -14898,14 +15118,17 @@
       </c>
       <c r="BJ75" t="n">
         <v>56.0</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C76" t="n">
         <v>77.0</v>
@@ -15085,15 +15308,18 @@
         <v>279.0</v>
       </c>
       <c r="BJ76" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="BK76" t="n">
         <v>280.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C77" t="n">
         <v>151.0</v>
@@ -15274,14 +15500,17 @@
       </c>
       <c r="BJ77" t="n">
         <v>64.0</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B78" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C78" t="n">
         <v>193.0</v>
@@ -15462,14 +15691,17 @@
       </c>
       <c r="BJ78" t="n">
         <v>378.0</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>393.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B79" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C79" t="n">
         <v>28.0</v>
@@ -15650,14 +15882,17 @@
       </c>
       <c r="BJ79" t="n">
         <v>2.0</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B80" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C80" t="n">
         <v>107.0</v>
@@ -15838,14 +16073,17 @@
       </c>
       <c r="BJ80" t="n">
         <v>58.0</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B81" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C81" t="n">
         <v>0.0</v>
@@ -16025,15 +16263,18 @@
         <v>4.0</v>
       </c>
       <c r="BJ81" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BK81" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C82" t="n">
         <v>7296.0</v>
@@ -16214,14 +16455,17 @@
       </c>
       <c r="BJ82" t="n">
         <v>13070.0</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>13491.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B83" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C83" t="n">
         <v>24.0</v>
@@ -16401,15 +16645,18 @@
         <v>108.0</v>
       </c>
       <c r="BJ83" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="BK83" t="n">
         <v>108.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B84" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C84" t="n">
         <v>129.0</v>
@@ -16590,14 +16837,17 @@
       </c>
       <c r="BJ84" t="n">
         <v>412.0</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>417.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B85" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C85" t="n">
         <v>107.0</v>
@@ -16778,14 +17028,17 @@
       </c>
       <c r="BJ85" t="n">
         <v>95.0</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>86.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B86" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C86" t="n">
         <v>162.0</v>
@@ -16965,15 +17218,18 @@
         <v>22.0</v>
       </c>
       <c r="BJ86" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BK86" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B87" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C87" t="n">
         <v>2026.0</v>
@@ -17154,14 +17410,17 @@
       </c>
       <c r="BJ87" t="n">
         <v>6766.0</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>6528.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B88" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C88" t="n">
         <v>27.0</v>
@@ -17341,15 +17600,18 @@
         <v>40.0</v>
       </c>
       <c r="BJ88" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="BK88" t="n">
         <v>33.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B89" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C89" t="n">
         <v>126.0</v>
@@ -17530,14 +17792,17 @@
       </c>
       <c r="BJ89" t="n">
         <v>80.0</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B90" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C90" t="n">
         <v>0.0</v>
@@ -17717,15 +17982,18 @@
         <v>0.0</v>
       </c>
       <c r="BJ90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK90" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B91" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C91" t="n">
         <v>2.0</v>
@@ -17905,15 +18173,18 @@
         <v>14.0</v>
       </c>
       <c r="BJ91" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BK91" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B92" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C92" t="n">
         <v>87.0</v>
@@ -18094,14 +18365,17 @@
       </c>
       <c r="BJ92" t="n">
         <v>108.0</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B93" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C93" t="n">
         <v>355.0</v>
@@ -18282,14 +18556,17 @@
       </c>
       <c r="BJ93" t="n">
         <v>76.0</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B94" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C94" t="n">
         <v>420.0</v>
@@ -18470,14 +18747,17 @@
       </c>
       <c r="BJ94" t="n">
         <v>264.0</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>286.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B95" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C95" t="n">
         <v>2037.0</v>
@@ -18658,14 +18938,17 @@
       </c>
       <c r="BJ95" t="n">
         <v>3359.0</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>3353.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B96" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C96" t="n">
         <v>179.0</v>
@@ -18845,15 +19128,18 @@
         <v>668.0</v>
       </c>
       <c r="BJ96" t="n">
+        <v>658.0</v>
+      </c>
+      <c r="BK96" t="n">
         <v>658.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B97" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C97" t="n">
         <v>401.0</v>
@@ -19034,14 +19320,17 @@
       </c>
       <c r="BJ97" t="n">
         <v>574.0</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>515.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B98" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C98" t="n">
         <v>440.0</v>
@@ -19221,15 +19510,18 @@
         <v>110.0</v>
       </c>
       <c r="BJ98" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="BK98" t="n">
         <v>97.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B99" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C99" t="n">
         <v>91.0</v>
@@ -19410,14 +19702,17 @@
       </c>
       <c r="BJ99" t="n">
         <v>46.0</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B100" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C100" t="n">
         <v>53.0</v>
@@ -19598,14 +19893,17 @@
       </c>
       <c r="BJ100" t="n">
         <v>89.0</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>86.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B101" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C101" t="n">
         <v>112.0</v>
@@ -19786,14 +20084,17 @@
       </c>
       <c r="BJ101" t="n">
         <v>50.0</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B102" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C102" t="n">
         <v>13.0</v>
@@ -19974,14 +20275,17 @@
       </c>
       <c r="BJ102" t="n">
         <v>7.0</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B103" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C103" t="n">
         <v>1162.0</v>
@@ -20162,14 +20466,17 @@
       </c>
       <c r="BJ103" t="n">
         <v>818.0</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>816.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B104" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C104" t="n">
         <v>21091.0</v>
@@ -20350,14 +20657,17 @@
       </c>
       <c r="BJ104" t="n">
         <v>38766.0</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>37418.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B105" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C105" t="n">
         <v>239.0</v>
@@ -20538,14 +20848,17 @@
       </c>
       <c r="BJ105" t="n">
         <v>928.0</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>937.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B106" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C106" t="n">
         <v>61.0</v>
@@ -20726,14 +21039,17 @@
       </c>
       <c r="BJ106" t="n">
         <v>66.0</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B107" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C107" t="n">
         <v>13.0</v>
@@ -20914,14 +21230,17 @@
       </c>
       <c r="BJ107" t="n">
         <v>3.0</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B108" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C108" t="n">
         <v>982.0</v>
@@ -21102,14 +21421,17 @@
       </c>
       <c r="BJ108" t="n">
         <v>1632.0</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>1559.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B109" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C109" t="n">
         <v>55.0</v>
@@ -21290,14 +21612,17 @@
       </c>
       <c r="BJ109" t="n">
         <v>40.0</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B110" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C110" t="n">
         <v>1131.0</v>
@@ -21478,14 +21803,17 @@
       </c>
       <c r="BJ110" t="n">
         <v>1739.0</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>1738.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B111" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C111" t="n">
         <v>2517.0</v>
@@ -21666,14 +21994,17 @@
       </c>
       <c r="BJ111" t="n">
         <v>2303.0</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>2241.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B112" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C112" t="n">
         <v>327.0</v>
@@ -21854,14 +22185,17 @@
       </c>
       <c r="BJ112" t="n">
         <v>837.0</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>842.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B113" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C113" t="n">
         <v>256.0</v>
@@ -22042,14 +22376,17 @@
       </c>
       <c r="BJ113" t="n">
         <v>87.0</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B114" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C114" t="n">
         <v>280.0</v>
@@ -22230,14 +22567,17 @@
       </c>
       <c r="BJ114" t="n">
         <v>121.0</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>122.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B115" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C115" t="n">
         <v>225.0</v>
@@ -22418,14 +22758,17 @@
       </c>
       <c r="BJ115" t="n">
         <v>194.0</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>203.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B116" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C116" t="n">
         <v>54.0</v>
@@ -22606,14 +22949,17 @@
       </c>
       <c r="BJ116" t="n">
         <v>84.0</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>81.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B117" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C117" t="n">
         <v>594.0</v>
@@ -22794,14 +23140,17 @@
       </c>
       <c r="BJ117" t="n">
         <v>237.0</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>173.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B118" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C118" t="n">
         <v>64.0</v>
@@ -22981,15 +23330,18 @@
         <v>0.0</v>
       </c>
       <c r="BJ118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK118" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B119" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C119" t="n">
         <v>321.0</v>
@@ -23169,15 +23521,18 @@
         <v>1244.0</v>
       </c>
       <c r="BJ119" t="n">
+        <v>1243.0</v>
+      </c>
+      <c r="BK119" t="n">
         <v>1243.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B120" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C120" t="n">
         <v>264.0</v>
@@ -23358,14 +23713,17 @@
       </c>
       <c r="BJ120" t="n">
         <v>105.0</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>103.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B121" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C121" t="n">
         <v>0.0</v>
@@ -23546,14 +23904,17 @@
       </c>
       <c r="BJ121" t="n">
         <v>17.0</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B122" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C122" t="n">
         <v>17.0</v>
@@ -23734,14 +24095,17 @@
       </c>
       <c r="BJ122" t="n">
         <v>4.0</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B123" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C123" t="n">
         <v>58.0</v>
@@ -23921,15 +24285,18 @@
         <v>47.0</v>
       </c>
       <c r="BJ123" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="BK123" t="n">
         <v>47.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B124" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C124" t="n">
         <v>138.0</v>
@@ -24110,14 +24477,17 @@
       </c>
       <c r="BJ124" t="n">
         <v>48.0</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B125" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C125" t="n">
         <v>19.0</v>
@@ -24298,14 +24668,17 @@
       </c>
       <c r="BJ125" t="n">
         <v>32.0</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B126" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C126" t="n">
         <v>2137.0</v>
@@ -24486,14 +24859,17 @@
       </c>
       <c r="BJ126" t="n">
         <v>2734.0</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>2677.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B127" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C127" t="n">
         <v>42.0</v>
@@ -24674,14 +25050,17 @@
       </c>
       <c r="BJ127" t="n">
         <v>78.0</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>77.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B128" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C128" t="n">
         <v>248.0</v>
@@ -24862,14 +25241,17 @@
       </c>
       <c r="BJ128" t="n">
         <v>314.0</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>303.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B129" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C129" t="n">
         <v>846.0</v>
@@ -25050,14 +25432,17 @@
       </c>
       <c r="BJ129" t="n">
         <v>347.0</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>366.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B130" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C130" t="n">
         <v>658.0</v>
@@ -25238,14 +25623,17 @@
       </c>
       <c r="BJ130" t="n">
         <v>110.0</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B131" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C131" t="n">
         <v>44.0</v>
@@ -25426,14 +25814,17 @@
       </c>
       <c r="BJ131" t="n">
         <v>61.0</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B132" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C132" t="n">
         <v>524.0</v>
@@ -25614,14 +26005,17 @@
       </c>
       <c r="BJ132" t="n">
         <v>399.0</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>426.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B133" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C133" t="n">
         <v>120.0</v>
@@ -25802,14 +26196,17 @@
       </c>
       <c r="BJ133" t="n">
         <v>157.0</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>144.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B134" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C134" t="n">
         <v>2.0</v>
@@ -25989,15 +26386,18 @@
         <v>3.0</v>
       </c>
       <c r="BJ134" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BK134" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B135" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C135" t="n">
         <v>3.0</v>
@@ -26177,15 +26577,18 @@
         <v>2.0</v>
       </c>
       <c r="BJ135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK135" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B136" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C136" t="n">
         <v>241.0</v>
@@ -26366,14 +26769,17 @@
       </c>
       <c r="BJ136" t="n">
         <v>213.0</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>210.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B137" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C137" t="n">
         <v>6.0</v>
@@ -26554,14 +26960,17 @@
       </c>
       <c r="BJ137" t="n">
         <v>12.0</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B138" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C138" t="n">
         <v>3.0</v>
@@ -26741,15 +27150,18 @@
         <v>1.0</v>
       </c>
       <c r="BJ138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK138" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B139" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C139" t="n">
         <v>5.0</v>
@@ -26930,14 +27342,17 @@
       </c>
       <c r="BJ139" t="n">
         <v>10.0</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B140" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C140" t="n">
         <v>108.0</v>
@@ -27118,14 +27533,17 @@
       </c>
       <c r="BJ140" t="n">
         <v>269.0</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>251.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B141" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C141" t="n">
         <v>4.0</v>
@@ -27305,15 +27723,18 @@
         <v>2.0</v>
       </c>
       <c r="BJ141" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BK141" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B142" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C142" t="n">
         <v>410.0</v>
@@ -27494,14 +27915,17 @@
       </c>
       <c r="BJ142" t="n">
         <v>418.0</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>305.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B143" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C143" t="n">
         <v>354.0</v>
@@ -27681,15 +28105,18 @@
         <v>67.0</v>
       </c>
       <c r="BJ143" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="BK143" t="n">
         <v>67.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B144" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C144" t="n">
         <v>113.0</v>
@@ -27870,14 +28297,17 @@
       </c>
       <c r="BJ144" t="n">
         <v>587.0</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>601.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B145" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C145" t="n">
         <v>76.0</v>
@@ -28058,14 +28488,17 @@
       </c>
       <c r="BJ145" t="n">
         <v>61.0</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>132.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B146" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C146" t="n">
         <v>47.0</v>
@@ -28246,14 +28679,17 @@
       </c>
       <c r="BJ146" t="n">
         <v>57.0</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B147" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C147" t="n">
         <v>123.0</v>
@@ -28434,14 +28870,17 @@
       </c>
       <c r="BJ147" t="n">
         <v>390.0</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>408.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B148" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C148" t="n">
         <v>98.0</v>
@@ -28622,14 +29061,17 @@
       </c>
       <c r="BJ148" t="n">
         <v>289.0</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>294.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B149" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C149" t="n">
         <v>203.0</v>
@@ -28810,14 +29252,17 @@
       </c>
       <c r="BJ149" t="n">
         <v>490.0</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>496.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B150" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C150" t="n">
         <v>137.0</v>
@@ -28998,14 +29443,17 @@
       </c>
       <c r="BJ150" t="n">
         <v>619.0</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>620.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B151" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C151" t="n">
         <v>53.0</v>
@@ -29185,15 +29633,18 @@
         <v>27.0</v>
       </c>
       <c r="BJ151" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BK151" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B152" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C152" t="n">
         <v>137.0</v>
@@ -29374,14 +29825,17 @@
       </c>
       <c r="BJ152" t="n">
         <v>68.0</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B153" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C153" t="n">
         <v>133.0</v>
@@ -29562,14 +30016,17 @@
       </c>
       <c r="BJ153" t="n">
         <v>333.0</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>348.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B154" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C154" t="n">
         <v>0.0</v>
@@ -29749,15 +30206,18 @@
         <v>0.0</v>
       </c>
       <c r="BJ154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B155" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C155" t="n">
         <v>4535.0</v>
@@ -29938,14 +30398,17 @@
       </c>
       <c r="BJ155" t="n">
         <v>944.0</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>906.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B156" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C156" t="n">
         <v>83.0</v>
@@ -30125,15 +30588,18 @@
         <v>5.0</v>
       </c>
       <c r="BJ156" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BK156" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B157" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C157" t="n">
         <v>41.0</v>
@@ -30313,15 +30779,18 @@
         <v>29.0</v>
       </c>
       <c r="BJ157" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BK157" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B158" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C158" t="n">
         <v>1147.0</v>
@@ -30502,14 +30971,17 @@
       </c>
       <c r="BJ158" t="n">
         <v>824.0</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>641.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B159" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C159" t="n">
         <v>7.0</v>
@@ -30690,14 +31162,17 @@
       </c>
       <c r="BJ159" t="n">
         <v>3.0</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B160" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C160" t="n">
         <v>62.0</v>
@@ -30878,14 +31353,17 @@
       </c>
       <c r="BJ160" t="n">
         <v>206.0</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>207.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B161" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C161" t="n">
         <v>14.0</v>
@@ -31066,14 +31544,17 @@
       </c>
       <c r="BJ161" t="n">
         <v>119.0</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>122.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B162" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C162" t="n">
         <v>88.0</v>
@@ -31254,14 +31735,17 @@
       </c>
       <c r="BJ162" t="n">
         <v>41.0</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B163" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C163" t="n">
         <v>31.0</v>
@@ -31442,14 +31926,17 @@
       </c>
       <c r="BJ163" t="n">
         <v>31.0</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B164" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C164" t="n">
         <v>83.0</v>
@@ -31630,14 +32117,17 @@
       </c>
       <c r="BJ164" t="n">
         <v>127.0</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>141.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B165" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C165" t="n">
         <v>632.0</v>
@@ -31818,14 +32308,17 @@
       </c>
       <c r="BJ165" t="n">
         <v>1407.0</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>1354.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B166" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C166" t="n">
         <v>148.0</v>
@@ -32006,14 +32499,17 @@
       </c>
       <c r="BJ166" t="n">
         <v>238.0</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B167" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C167" t="n">
         <v>17.0</v>
@@ -32194,14 +32690,17 @@
       </c>
       <c r="BJ167" t="n">
         <v>13.0</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B168" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C168" t="n">
         <v>1564.0</v>
@@ -32382,14 +32881,17 @@
       </c>
       <c r="BJ168" t="n">
         <v>1013.0</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>1376.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B169" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C169" t="n">
         <v>123.0</v>
@@ -32570,14 +33072,17 @@
       </c>
       <c r="BJ169" t="n">
         <v>171.0</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>175.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B170" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C170" t="n">
         <v>56.0</v>
@@ -32758,14 +33263,17 @@
       </c>
       <c r="BJ170" t="n">
         <v>145.0</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>146.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B171" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C171" t="n">
         <v>83.0</v>
@@ -32946,14 +33454,17 @@
       </c>
       <c r="BJ171" t="n">
         <v>4.0</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B172" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C172" t="n">
         <v>89.0</v>
@@ -33134,14 +33645,17 @@
       </c>
       <c r="BJ172" t="n">
         <v>26.0</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B173" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C173" t="n">
         <v>8150.0</v>
@@ -33322,14 +33836,17 @@
       </c>
       <c r="BJ173" t="n">
         <v>21991.0</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>22094.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B174" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C174" t="n">
         <v>193.0</v>
@@ -33510,14 +34027,17 @@
       </c>
       <c r="BJ174" t="n">
         <v>47.0</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B175" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C175" t="n">
         <v>22.0</v>
@@ -33698,14 +34218,17 @@
       </c>
       <c r="BJ175" t="n">
         <v>139.0</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>142.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B176" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C176" t="n">
         <v>26.0</v>
@@ -33886,14 +34409,17 @@
       </c>
       <c r="BJ176" t="n">
         <v>1.0</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B177" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C177" t="n">
         <v>204.0</v>
@@ -34074,14 +34600,17 @@
       </c>
       <c r="BJ177" t="n">
         <v>284.0</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>283.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B178" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C178" t="n">
         <v>251.0</v>
@@ -34262,14 +34791,17 @@
       </c>
       <c r="BJ178" t="n">
         <v>388.0</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>366.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B179" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C179" t="n">
         <v>26.0</v>
@@ -34450,14 +34982,17 @@
       </c>
       <c r="BJ179" t="n">
         <v>9.0</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B180" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C180" t="n">
         <v>265.0</v>
@@ -34638,14 +35173,17 @@
       </c>
       <c r="BJ180" t="n">
         <v>144.0</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>131.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B181" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C181" t="n">
         <v>2099.0</v>
@@ -34826,14 +35364,17 @@
       </c>
       <c r="BJ181" t="n">
         <v>2503.0</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>2406.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B182" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C182" t="n">
         <v>247.0</v>
@@ -35014,14 +35555,17 @@
       </c>
       <c r="BJ182" t="n">
         <v>31.0</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B183" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C183" t="n">
         <v>48.0</v>
@@ -35202,14 +35746,17 @@
       </c>
       <c r="BJ183" t="n">
         <v>48.0</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B184" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C184" t="n">
         <v>1991.0</v>
@@ -35389,15 +35936,18 @@
         <v>1182.0</v>
       </c>
       <c r="BJ184" t="n">
+        <v>1194.0</v>
+      </c>
+      <c r="BK184" t="n">
         <v>1194.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B185" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C185" t="n">
         <v>121.0</v>
@@ -35578,14 +36128,17 @@
       </c>
       <c r="BJ185" t="n">
         <v>64.0</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B186" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C186" t="n">
         <v>92.0</v>
@@ -35766,14 +36319,17 @@
       </c>
       <c r="BJ186" t="n">
         <v>149.0</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>151.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B187" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C187" t="n">
         <v>611.0</v>
@@ -35954,14 +36510,17 @@
       </c>
       <c r="BJ187" t="n">
         <v>315.0</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>347.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B188" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C188" t="n">
         <v>160.0</v>
@@ -36142,14 +36701,17 @@
       </c>
       <c r="BJ188" t="n">
         <v>18.0</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B189" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C189" t="n">
         <v>160.0</v>
@@ -36329,15 +36891,18 @@
         <v>53.0</v>
       </c>
       <c r="BJ189" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BK189" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B190" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C190" t="n">
         <v>303.0</v>
@@ -36518,14 +37083,17 @@
       </c>
       <c r="BJ190" t="n">
         <v>345.0</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>235.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B191" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C191" t="n">
         <v>3236.0</v>
@@ -36706,14 +37274,17 @@
       </c>
       <c r="BJ191" t="n">
         <v>790.0</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>763.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B192" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C192" t="n">
         <v>118.0</v>
@@ -36894,14 +37465,17 @@
       </c>
       <c r="BJ192" t="n">
         <v>89.0</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B193" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C193" t="n">
         <v>220.0</v>
@@ -37081,15 +37655,18 @@
         <v>213.0</v>
       </c>
       <c r="BJ193" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="BK193" t="n">
         <v>213.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B194" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C194" t="n">
         <v>3899.0</v>
@@ -37270,14 +37847,17 @@
       </c>
       <c r="BJ194" t="n">
         <v>978.0</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>946.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B195" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C195" t="n">
         <v>4.0</v>
@@ -37458,14 +38038,17 @@
       </c>
       <c r="BJ195" t="n">
         <v>9.0</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B196" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C196" t="n">
         <v>8.0</v>
@@ -37646,14 +38229,17 @@
       </c>
       <c r="BJ196" t="n">
         <v>4.0</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B197" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C197" t="n">
         <v>49.0</v>
@@ -37834,14 +38420,17 @@
       </c>
       <c r="BJ197" t="n">
         <v>32.0</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B198" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C198" t="n">
         <v>255.0</v>
@@ -38022,14 +38611,17 @@
       </c>
       <c r="BJ198" t="n">
         <v>154.0</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>143.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B199" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C199" t="n">
         <v>44.0</v>
@@ -38210,14 +38802,17 @@
       </c>
       <c r="BJ199" t="n">
         <v>37.0</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B200" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C200" t="n">
         <v>7.0</v>
@@ -38397,15 +38992,18 @@
         <v>1.0</v>
       </c>
       <c r="BJ200" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK200" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B201" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C201" t="n">
         <v>121.0</v>
@@ -38586,14 +39184,17 @@
       </c>
       <c r="BJ201" t="n">
         <v>449.0</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>457.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B202" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C202" t="n">
         <v>387.0</v>
@@ -38774,14 +39375,17 @@
       </c>
       <c r="BJ202" t="n">
         <v>282.0</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>288.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B203" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C203" t="n">
         <v>78.0</v>
@@ -38961,15 +39565,18 @@
         <v>13.0</v>
       </c>
       <c r="BJ203" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BK203" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B204" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C204" t="n">
         <v>292.0</v>
@@ -39150,14 +39757,17 @@
       </c>
       <c r="BJ204" t="n">
         <v>408.0</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>397.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B205" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C205" t="n">
         <v>38.0</v>
@@ -39337,15 +39947,18 @@
         <v>0.0</v>
       </c>
       <c r="BJ205" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK205" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B206" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C206" t="n">
         <v>49.0</v>
@@ -39526,14 +40139,17 @@
       </c>
       <c r="BJ206" t="n">
         <v>27.0</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B207" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C207" t="n">
         <v>41.0</v>
@@ -39714,14 +40330,17 @@
       </c>
       <c r="BJ207" t="n">
         <v>208.0</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>210.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B208" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C208" t="n">
         <v>121.0</v>
@@ -39901,15 +40520,18 @@
         <v>203.0</v>
       </c>
       <c r="BJ208" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="BK208" t="n">
         <v>203.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B209" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C209" t="n">
         <v>36.0</v>
@@ -40090,14 +40712,17 @@
       </c>
       <c r="BJ209" t="n">
         <v>214.0</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>205.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B210" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C210" t="n">
         <v>18.0</v>
@@ -40277,15 +40902,18 @@
         <v>20.0</v>
       </c>
       <c r="BJ210" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="BK210" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B211" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C211" t="n">
         <v>97.0</v>
@@ -40465,15 +41093,18 @@
         <v>17.0</v>
       </c>
       <c r="BJ211" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="BK211" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B212" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C212" t="n">
         <v>6.0</v>
@@ -40654,14 +41285,17 @@
       </c>
       <c r="BJ212" t="n">
         <v>6.0</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B213" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C213" t="n">
         <v>71.0</v>
@@ -40842,14 +41476,17 @@
       </c>
       <c r="BJ213" t="n">
         <v>131.0</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>130.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B214" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C214" t="n">
         <v>9.0</v>
@@ -41030,14 +41667,17 @@
       </c>
       <c r="BJ214" t="n">
         <v>11.0</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B215" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C215" t="n">
         <v>4596.0</v>
@@ -41217,15 +41857,18 @@
         <v>5779.0</v>
       </c>
       <c r="BJ215" t="n">
+        <v>5776.0</v>
+      </c>
+      <c r="BK215" t="n">
         <v>5776.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B216" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C216" t="n">
         <v>48.0</v>
@@ -41406,14 +42049,17 @@
       </c>
       <c r="BJ216" t="n">
         <v>12.0</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B217" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C217" t="n">
         <v>654.0</v>
@@ -41594,14 +42240,17 @@
       </c>
       <c r="BJ217" t="n">
         <v>1004.0</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>991.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B218" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C218" t="n">
         <v>84.0</v>
@@ -41782,14 +42431,17 @@
       </c>
       <c r="BJ218" t="n">
         <v>11.0</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B219" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C219" t="n">
         <v>18.0</v>
@@ -41969,15 +42621,18 @@
         <v>3.0</v>
       </c>
       <c r="BJ219" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BK219" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B220" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C220" t="n">
         <v>5.0</v>
@@ -42157,15 +42812,18 @@
         <v>0.0</v>
       </c>
       <c r="BJ220" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK220" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B221" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C221" t="n">
         <v>58.0</v>
@@ -42346,14 +43004,17 @@
       </c>
       <c r="BJ221" t="n">
         <v>29.0</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B222" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C222" t="n">
         <v>159.0</v>
@@ -42533,15 +43194,18 @@
         <v>34.0</v>
       </c>
       <c r="BJ222" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="BK222" t="n">
         <v>36.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B223" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C223" t="n">
         <v>31380.0</v>
@@ -42722,14 +43386,17 @@
       </c>
       <c r="BJ223" t="n">
         <v>37754.0</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>36622.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B224" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C224" t="n">
         <v>2592.0</v>
@@ -42910,14 +43577,17 @@
       </c>
       <c r="BJ224" t="n">
         <v>1662.0</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>1534.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B225" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C225" t="n">
         <v>11.0</v>
@@ -43097,15 +43767,18 @@
         <v>1.0</v>
       </c>
       <c r="BJ225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK225" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B226" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C226" t="n">
         <v>312.0</v>
@@ -43286,14 +43959,17 @@
       </c>
       <c r="BJ226" t="n">
         <v>43.0</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B227" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C227" t="n">
         <v>0.0</v>
@@ -43473,15 +44149,18 @@
         <v>0.0</v>
       </c>
       <c r="BJ227" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK227" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B228" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C228" t="n">
         <v>179.0</v>
@@ -43662,14 +44341,17 @@
       </c>
       <c r="BJ228" t="n">
         <v>475.0</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>471.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B229" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C229" t="n">
         <v>1510.0</v>
@@ -43850,14 +44532,17 @@
       </c>
       <c r="BJ229" t="n">
         <v>600.0</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>601.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B230" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C230" t="n">
         <v>3091.0</v>
@@ -44038,14 +44723,17 @@
       </c>
       <c r="BJ230" t="n">
         <v>3846.0</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>3695.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B231" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C231" t="n">
         <v>17.0</v>
@@ -44226,14 +44914,17 @@
       </c>
       <c r="BJ231" t="n">
         <v>76.0</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B232" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C232" t="n">
         <v>124.0</v>
@@ -44414,14 +45105,17 @@
       </c>
       <c r="BJ232" t="n">
         <v>28.0</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B233" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C233" t="n">
         <v>165.0</v>
@@ -44602,14 +45296,17 @@
       </c>
       <c r="BJ233" t="n">
         <v>528.0</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>533.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B234" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C234" t="n">
         <v>25.0</v>
@@ -44790,14 +45487,17 @@
       </c>
       <c r="BJ234" t="n">
         <v>40.0</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B235" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C235" t="n">
         <v>70.0</v>
@@ -44978,14 +45678,17 @@
       </c>
       <c r="BJ235" t="n">
         <v>154.0</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>136.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B236" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C236" t="n">
         <v>323.0</v>
@@ -45165,15 +45868,18 @@
         <v>592.0</v>
       </c>
       <c r="BJ236" t="n">
+        <v>592.0</v>
+      </c>
+      <c r="BK236" t="n">
         <v>592.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B237" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C237" t="n">
         <v>1023.0</v>
@@ -45354,14 +46060,17 @@
       </c>
       <c r="BJ237" t="n">
         <v>1288.0</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>1287.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B238" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C238" t="n">
         <v>243.0</v>
@@ -45542,14 +46251,17 @@
       </c>
       <c r="BJ238" t="n">
         <v>652.0</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>649.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B239" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C239" t="n">
         <v>230.0</v>
@@ -45730,14 +46442,17 @@
       </c>
       <c r="BJ239" t="n">
         <v>536.0</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>532.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B240" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C240" t="n">
         <v>135.0</v>
@@ -45918,14 +46633,17 @@
       </c>
       <c r="BJ240" t="n">
         <v>180.0</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>181.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B241" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C241" t="n">
         <v>125.0</v>
@@ -46106,14 +46824,17 @@
       </c>
       <c r="BJ241" t="n">
         <v>88.0</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B242" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C242" t="n">
         <v>189.0</v>
@@ -46294,14 +47015,17 @@
       </c>
       <c r="BJ242" t="n">
         <v>970.0</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>985.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B243" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C243" t="n">
         <v>3689.0</v>
@@ -46482,14 +47206,17 @@
       </c>
       <c r="BJ243" t="n">
         <v>5169.0</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>4787.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B244" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C244" t="n">
         <v>131.0</v>
@@ -46670,14 +47397,17 @@
       </c>
       <c r="BJ244" t="n">
         <v>151.0</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>188.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B245" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C245" t="n">
         <v>79.0</v>
@@ -46858,14 +47588,17 @@
       </c>
       <c r="BJ245" t="n">
         <v>24.0</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B246" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C246" t="n">
         <v>2591.0</v>
@@ -47046,14 +47779,17 @@
       </c>
       <c r="BJ246" t="n">
         <v>593.0</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>556.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B247" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C247" t="n">
         <v>41.0</v>
@@ -47234,14 +47970,17 @@
       </c>
       <c r="BJ247" t="n">
         <v>7.0</v>
+      </c>
+      <c r="BK247" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B248" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C248" t="n">
         <v>146.0</v>
@@ -47422,14 +48161,17 @@
       </c>
       <c r="BJ248" t="n">
         <v>263.0</v>
+      </c>
+      <c r="BK248" t="n">
+        <v>262.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B249" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C249" t="n">
         <v>1135.0</v>
@@ -47610,14 +48352,17 @@
       </c>
       <c r="BJ249" t="n">
         <v>1057.0</v>
+      </c>
+      <c r="BK249" t="n">
+        <v>943.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B250" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C250" t="n">
         <v>176.0</v>
@@ -47798,14 +48543,17 @@
       </c>
       <c r="BJ250" t="n">
         <v>172.0</v>
+      </c>
+      <c r="BK250" t="n">
+        <v>150.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B251" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C251" t="n">
         <v>126.0</v>
@@ -47986,14 +48734,17 @@
       </c>
       <c r="BJ251" t="n">
         <v>36.0</v>
+      </c>
+      <c r="BK251" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B252" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C252" t="n">
         <v>350.0</v>
@@ -48174,14 +48925,17 @@
       </c>
       <c r="BJ252" t="n">
         <v>176.0</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>161.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B253" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C253" t="n">
         <v>357.0</v>
@@ -48362,14 +49116,17 @@
       </c>
       <c r="BJ253" t="n">
         <v>1047.0</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>1044.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B254" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C254" t="n">
         <v>112.0</v>
@@ -48550,14 +49307,17 @@
       </c>
       <c r="BJ254" t="n">
         <v>6.0</v>
+      </c>
+      <c r="BK254" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B255" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C255" t="n">
         <v>68.0</v>
@@ -48738,14 +49498,17 @@
       </c>
       <c r="BJ255" t="n">
         <v>51.0</v>
+      </c>
+      <c r="BK255" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B256" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C256" t="n">
         <v>180.0</v>
@@ -48926,14 +49689,17 @@
       </c>
       <c r="BJ256" t="n">
         <v>214.0</v>
+      </c>
+      <c r="BK256" t="n">
+        <v>211.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B257" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C257" t="n">
         <v>35.0</v>
@@ -49114,14 +49880,17 @@
       </c>
       <c r="BJ257" t="n">
         <v>113.0</v>
+      </c>
+      <c r="BK257" t="n">
+        <v>98.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B258" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C258"/>
       <c r="D258"/>
@@ -49183,13 +49952,14 @@
       <c r="BH258"/>
       <c r="BI258"/>
       <c r="BJ258"/>
+      <c r="BK258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B259" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C259"/>
       <c r="D259"/>
@@ -49251,13 +50021,14 @@
       <c r="BH259"/>
       <c r="BI259"/>
       <c r="BJ259"/>
+      <c r="BK259"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B260" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C260"/>
       <c r="D260"/>
@@ -49319,13 +50090,14 @@
       <c r="BH260"/>
       <c r="BI260"/>
       <c r="BJ260"/>
+      <c r="BK260"/>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B261" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C261"/>
       <c r="D261"/>
@@ -49387,13 +50159,14 @@
       <c r="BH261"/>
       <c r="BI261"/>
       <c r="BJ261"/>
+      <c r="BK261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B262" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C262"/>
       <c r="D262"/>
@@ -49455,13 +50228,14 @@
       <c r="BH262"/>
       <c r="BI262"/>
       <c r="BJ262"/>
+      <c r="BK262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B263" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C263"/>
       <c r="D263"/>
@@ -49523,13 +50297,14 @@
       <c r="BH263"/>
       <c r="BI263"/>
       <c r="BJ263"/>
+      <c r="BK263"/>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B264" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C264"/>
       <c r="D264"/>
@@ -49591,13 +50366,14 @@
       <c r="BH264"/>
       <c r="BI264"/>
       <c r="BJ264"/>
+      <c r="BK264"/>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B265" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C265"/>
       <c r="D265"/>
@@ -49659,13 +50435,14 @@
       <c r="BH265"/>
       <c r="BI265"/>
       <c r="BJ265"/>
+      <c r="BK265"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B266" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C266"/>
       <c r="D266"/>
@@ -49727,13 +50504,14 @@
       <c r="BH266"/>
       <c r="BI266"/>
       <c r="BJ266"/>
+      <c r="BK266"/>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B267" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C267"/>
       <c r="D267"/>
@@ -49795,13 +50573,14 @@
       <c r="BH267"/>
       <c r="BI267"/>
       <c r="BJ267"/>
+      <c r="BK267"/>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B268" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C268"/>
       <c r="D268"/>
@@ -49863,13 +50642,14 @@
       <c r="BH268"/>
       <c r="BI268"/>
       <c r="BJ268"/>
+      <c r="BK268"/>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B269" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C269"/>
       <c r="D269"/>
@@ -49931,13 +50711,14 @@
       <c r="BH269"/>
       <c r="BI269"/>
       <c r="BJ269"/>
+      <c r="BK269"/>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B270" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C270"/>
       <c r="D270"/>
@@ -49999,13 +50780,14 @@
       <c r="BH270"/>
       <c r="BI270"/>
       <c r="BJ270"/>
+      <c r="BK270"/>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B271" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C271"/>
       <c r="D271"/>
@@ -50067,13 +50849,14 @@
       <c r="BH271"/>
       <c r="BI271"/>
       <c r="BJ271"/>
+      <c r="BK271"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B272" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C272"/>
       <c r="D272"/>
@@ -50135,13 +50918,14 @@
       <c r="BH272"/>
       <c r="BI272"/>
       <c r="BJ272"/>
+      <c r="BK272"/>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B273" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C273"/>
       <c r="D273"/>
@@ -50203,13 +50987,14 @@
       <c r="BH273"/>
       <c r="BI273"/>
       <c r="BJ273"/>
+      <c r="BK273"/>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B274" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C274"/>
       <c r="D274"/>
@@ -50271,13 +51056,14 @@
       <c r="BH274"/>
       <c r="BI274"/>
       <c r="BJ274"/>
+      <c r="BK274"/>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B275" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C275"/>
       <c r="D275"/>
@@ -50339,13 +51125,14 @@
       <c r="BH275"/>
       <c r="BI275"/>
       <c r="BJ275"/>
+      <c r="BK275"/>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B276" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C276"/>
       <c r="D276"/>
@@ -50407,13 +51194,14 @@
       <c r="BH276"/>
       <c r="BI276"/>
       <c r="BJ276"/>
+      <c r="BK276"/>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B277" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C277"/>
       <c r="D277"/>
@@ -50475,13 +51263,14 @@
       <c r="BH277"/>
       <c r="BI277"/>
       <c r="BJ277"/>
+      <c r="BK277"/>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B278" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C278"/>
       <c r="D278"/>
@@ -50543,13 +51332,14 @@
       <c r="BH278"/>
       <c r="BI278"/>
       <c r="BJ278"/>
+      <c r="BK278"/>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B279" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C279"/>
       <c r="D279"/>
@@ -50611,6 +51401,7 @@
       <c r="BH279"/>
       <c r="BI279"/>
       <c r="BJ279"/>
+      <c r="BK279"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
